--- a/06 네트워크 개론 퍼블릭클라우드/1.osi7계층.xlsx
+++ b/06 네트워크 개론 퍼블릭클라우드/1.osi7계층.xlsx
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세그먼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTP,FTP,SMTP,SNMP,DNS 등등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,7 +215,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패킷, 데이터그램</t>
+    <t>패킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세그먼트, 데이터그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <dimension ref="A4:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -603,16 +603,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -651,19 +651,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -674,19 +674,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>2.5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -705,19 +705,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -728,13 +728,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
